--- a/xlsx/保时捷卡宴_intext.xlsx
+++ b/xlsx/保时捷卡宴_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>保时捷卡宴</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7</t>
   </si>
   <si>
-    <t>保時捷</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_保时捷卡宴</t>
+    <t>保时捷</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_保时捷卡宴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -47,25 +47,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%AF%94%E9%8C%AB</t>
   </si>
   <si>
-    <t>萊比錫</t>
+    <t>莱比锡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>休旅車</t>
+    <t>休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%BC%95%E6%93%8E</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%BC%AA%E9%A9%85%E5%8B%95</t>
   </si>
   <si>
-    <t>四輪驅動</t>
+    <t>四轮驱动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -101,19 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
-    <t>德国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%97%B6%E6%8D%B7</t>
   </si>
   <si>
-    <t>保时捷</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%9E%8B%E5%A4%9A%E7%94%A8%E9%80%94%E8%BB%8A</t>
   </si>
   <si>
-    <t>運動型多用途車</t>
+    <t>运动型多用途车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E6%B1%BD%E8%BD%A6</t>
@@ -131,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA</t>
   </si>
   <si>
-    <t>渦輪</t>
+    <t>涡轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7Boxster</t>
   </si>
   <si>
-    <t>保時捷Boxster</t>
+    <t>保时捷Boxster</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E5%85%B0Corvette</t>
@@ -149,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>跑車</t>
+    <t>跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>福斯汽車</t>
+    <t>福斯汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/V6</t>
@@ -185,19 +179,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%BC%AA%E5%82%B3%E5%8B%95</t>
   </si>
   <si>
-    <t>四輪傳動</t>
+    <t>四轮传动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E8%87%AA%E5%8B%95%E8%AE%8A%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>半自動變速器</t>
+    <t>半自动变速器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -209,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -963,7 +957,7 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -989,10 +983,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -1047,10 +1041,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1076,10 +1070,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1105,10 +1099,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1134,10 +1128,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -1163,10 +1157,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1192,10 +1186,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1221,10 +1215,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1250,10 +1244,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1279,10 +1273,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -1308,10 +1302,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>12</v>
@@ -1337,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1366,10 +1360,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1395,10 +1389,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1424,10 +1418,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -1453,10 +1447,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1482,10 +1476,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1511,10 +1505,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -1540,10 +1534,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
